--- a/Приложение 3 справочник сравнение КБК.xlsx
+++ b/Приложение 3 справочник сравнение КБК.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APoskrebyshev\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APoskrebyshev\Desktop\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -325,7 +325,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -377,9 +377,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -663,7 +663,7 @@
   <dimension ref="A1:T147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+      <selection activeCell="H76" sqref="H76:H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="b">
-        <f>EXACT(A1,D1)</f>
+        <f t="shared" ref="G1:G32" si="0">EXACT(A1,D1)</f>
         <v>1</v>
       </c>
     </row>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="b">
-        <f>EXACT(A2,D2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="b">
-        <f>EXACT(A3,D3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="b">
-        <f>EXACT(A4,D4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="b">
-        <f>EXACT(A5,D5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="b">
-        <f>EXACT(A6,D6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="b">
-        <f>EXACT(A7,D7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="b">
-        <f>EXACT(A8,D8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="b">
-        <f>EXACT(A9,D9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -861,7 +861,7 @@
         <v>4952650600</v>
       </c>
       <c r="G10" s="2" t="b">
-        <f>EXACT(A10,D10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H10" s="2" t="b">
@@ -889,11 +889,11 @@
         <v>50511759100</v>
       </c>
       <c r="G11" s="2" t="b">
-        <f>EXACT(A11,D11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H11" s="2" t="b">
-        <f t="shared" ref="H11:H74" si="0">IF((C11*1000)=F11,TRUE,FALSE)</f>
+        <f t="shared" ref="H11:H74" si="1">IF((C11*1000)=F11,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -917,11 +917,11 @@
         <v>6502318500</v>
       </c>
       <c r="G12" s="2" t="b">
-        <f>EXACT(A12,D12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H12" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -945,11 +945,11 @@
         <v>57452103600</v>
       </c>
       <c r="G13" s="2" t="b">
-        <f>EXACT(A13,D13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H13" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -973,11 +973,11 @@
         <v>344298200</v>
       </c>
       <c r="G14" s="2" t="b">
-        <f>EXACT(A14,D14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H14" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1001,11 +1001,11 @@
         <v>26236532900</v>
       </c>
       <c r="G15" s="2" t="b">
-        <f>EXACT(A15,D15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H15" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1029,11 +1029,11 @@
         <v>52675919000</v>
       </c>
       <c r="G16" s="2" t="b">
-        <f>EXACT(A16,D16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H16" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1057,11 +1057,11 @@
         <v>1058320000</v>
       </c>
       <c r="G17" s="2" t="b">
-        <f>EXACT(A17,D17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H17" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1085,11 +1085,11 @@
         <v>20120140300</v>
       </c>
       <c r="G18" s="2" t="b">
-        <f>EXACT(A18,D18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H18" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1113,11 +1113,11 @@
         <v>1019423900</v>
       </c>
       <c r="G19" s="2" t="b">
-        <f>EXACT(A19,D19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H19" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1141,11 +1141,11 @@
         <v>163403400</v>
       </c>
       <c r="G20" s="2" t="b">
-        <f>EXACT(A20,D20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H20" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1169,11 +1169,11 @@
         <v>16665415500</v>
       </c>
       <c r="G21" s="2" t="b">
-        <f>EXACT(A21,D21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H21" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1197,11 +1197,11 @@
         <v>33203000</v>
       </c>
       <c r="G22" s="2" t="b">
-        <f>EXACT(A22,D22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H22" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1225,11 +1225,11 @@
         <v>4167701900</v>
       </c>
       <c r="G23" s="2" t="b">
-        <f>EXACT(A23,D23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H23" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1253,11 +1253,11 @@
         <v>2356517700</v>
       </c>
       <c r="G24" s="2" t="b">
-        <f>EXACT(A24,D24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H24" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1281,11 +1281,11 @@
         <v>291693300</v>
       </c>
       <c r="G25" s="2" t="b">
-        <f>EXACT(A25,D25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H25" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1309,11 +1309,11 @@
         <v>1056979700</v>
       </c>
       <c r="G26" s="2" t="b">
-        <f>EXACT(A26,D26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H26" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1337,11 +1337,11 @@
         <v>454975100</v>
       </c>
       <c r="G27" s="2" t="b">
-        <f>EXACT(A27,D27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H27" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1365,11 +1365,11 @@
         <v>529502300</v>
       </c>
       <c r="G28" s="2" t="b">
-        <f>EXACT(A28,D28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H28" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1393,11 +1393,11 @@
         <v>102430900</v>
       </c>
       <c r="G29" s="2" t="b">
-        <f>EXACT(A29,D29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H29" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1415,11 +1415,11 @@
         <v>2</v>
       </c>
       <c r="G30" s="2" t="b">
-        <f>EXACT(A30,D30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H30" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1443,11 +1443,11 @@
         <v>234507880500</v>
       </c>
       <c r="G31" s="2" t="b">
-        <f>EXACT(A31,D31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H31" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1465,11 +1465,11 @@
         <v>2</v>
       </c>
       <c r="G32" s="2" t="b">
-        <f>EXACT(A32,D32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H32" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1487,11 +1487,11 @@
         <v>2</v>
       </c>
       <c r="G33" s="2" t="b">
-        <f>EXACT(A33,D33)</f>
+        <f t="shared" ref="G33:G64" si="2">EXACT(A33,D33)</f>
         <v>1</v>
       </c>
       <c r="H33" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1509,11 +1509,11 @@
         <v>2</v>
       </c>
       <c r="G34" s="2" t="b">
-        <f>EXACT(A34,D34)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H34" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1531,11 +1531,11 @@
         <v>2</v>
       </c>
       <c r="G35" s="2" t="b">
-        <f>EXACT(A35,D35)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H35" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1553,11 +1553,11 @@
         <v>2</v>
       </c>
       <c r="G36" s="2" t="b">
-        <f>EXACT(A36,D36)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H36" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1575,11 +1575,11 @@
         <v>2</v>
       </c>
       <c r="G37" s="2" t="b">
-        <f>EXACT(A37,D37)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H37" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1597,11 +1597,11 @@
         <v>2</v>
       </c>
       <c r="G38" s="2" t="b">
-        <f>EXACT(A38,D38)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H38" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1619,11 +1619,11 @@
         <v>2</v>
       </c>
       <c r="G39" s="2" t="b">
-        <f>EXACT(A39,D39)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H39" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1641,11 +1641,11 @@
         <v>2</v>
       </c>
       <c r="G40" s="2" t="b">
-        <f>EXACT(A40,D40)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H40" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1663,11 +1663,11 @@
         <v>2</v>
       </c>
       <c r="G41" s="2" t="b">
-        <f>EXACT(A41,D41)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H41" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1685,11 +1685,11 @@
         <v>2</v>
       </c>
       <c r="G42" s="2" t="b">
-        <f>EXACT(A42,D42)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H42" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1707,11 +1707,11 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="b">
-        <f>EXACT(A43,D43)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H43" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1729,11 +1729,11 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="b">
-        <f>EXACT(A44,D44)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H44" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1751,11 +1751,11 @@
         <v>2</v>
       </c>
       <c r="G45" s="2" t="b">
-        <f>EXACT(A45,D45)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H45" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1773,11 +1773,11 @@
         <v>2</v>
       </c>
       <c r="G46" s="2" t="b">
-        <f>EXACT(A46,D46)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H46" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1795,11 +1795,11 @@
         <v>2</v>
       </c>
       <c r="G47" s="2" t="b">
-        <f>EXACT(A47,D47)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H47" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1817,11 +1817,11 @@
         <v>2</v>
       </c>
       <c r="G48" s="2" t="b">
-        <f>EXACT(A48,D48)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H48" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1839,11 +1839,11 @@
         <v>2</v>
       </c>
       <c r="G49" s="2" t="b">
-        <f>EXACT(A49,D49)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H49" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1867,11 +1867,11 @@
         <v>7263200</v>
       </c>
       <c r="G50" s="2" t="b">
-        <f>EXACT(A50,D50)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H50" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1895,11 +1895,11 @@
         <v>16401163000</v>
       </c>
       <c r="G51" s="2" t="b">
-        <f>EXACT(A51,D51)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H51" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1917,11 +1917,11 @@
         <v>2</v>
       </c>
       <c r="G52" s="2" t="b">
-        <f>EXACT(A52,D52)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H52" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1939,11 +1939,11 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="b">
-        <f>EXACT(A53,D53)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H53" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1961,11 +1961,11 @@
         <v>2</v>
       </c>
       <c r="G54" s="2" t="b">
-        <f>EXACT(A54,D54)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H54" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1983,11 +1983,11 @@
         <v>2</v>
       </c>
       <c r="G55" s="2" t="b">
-        <f>EXACT(A55,D55)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H55" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2005,11 +2005,11 @@
         <v>2</v>
       </c>
       <c r="G56" s="2" t="b">
-        <f>EXACT(A56,D56)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H56" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2027,11 +2027,11 @@
         <v>2</v>
       </c>
       <c r="G57" s="2" t="b">
-        <f>EXACT(A57,D57)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H57" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2049,11 +2049,11 @@
         <v>2</v>
       </c>
       <c r="G58" s="2" t="b">
-        <f>EXACT(A58,D58)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H58" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2071,11 +2071,11 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="b">
-        <f>EXACT(A59,D59)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H59" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2093,11 +2093,11 @@
         <v>2</v>
       </c>
       <c r="G60" s="2" t="b">
-        <f>EXACT(A60,D60)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H60" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2115,11 +2115,11 @@
         <v>2</v>
       </c>
       <c r="G61" s="2" t="b">
-        <f>EXACT(A61,D61)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H61" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2137,11 +2137,11 @@
         <v>2</v>
       </c>
       <c r="G62" s="2" t="b">
-        <f>EXACT(A62,D62)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H62" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2165,11 +2165,11 @@
         <v>343206173100</v>
       </c>
       <c r="G63" s="2" t="b">
-        <f>EXACT(A63,D63)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H63" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2193,11 +2193,11 @@
         <v>1974323600</v>
       </c>
       <c r="G64" s="2" t="b">
-        <f>EXACT(A64,D64)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H64" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2221,11 +2221,11 @@
         <v>4535465800</v>
       </c>
       <c r="G65" s="2" t="b">
-        <f>EXACT(A65,D65)</f>
+        <f t="shared" ref="G65:G96" si="3">EXACT(A65,D65)</f>
         <v>1</v>
       </c>
       <c r="H65" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2249,11 +2249,11 @@
         <v>884410100</v>
       </c>
       <c r="G66" s="2" t="b">
-        <f>EXACT(A66,D66)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H66" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2277,11 +2277,11 @@
         <v>48425268100</v>
       </c>
       <c r="G67" s="2" t="b">
-        <f>EXACT(A67,D67)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H67" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2305,11 +2305,11 @@
         <v>220309900</v>
       </c>
       <c r="G68" s="2" t="b">
-        <f>EXACT(A68,D68)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H68" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2333,11 +2333,11 @@
         <v>1252262300</v>
       </c>
       <c r="G69" s="2" t="b">
-        <f>EXACT(A69,D69)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H69" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2361,11 +2361,11 @@
         <v>246106000</v>
       </c>
       <c r="G70" s="2" t="b">
-        <f>EXACT(A70,D70)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H70" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2389,11 +2389,11 @@
         <v>2590311000</v>
       </c>
       <c r="G71" s="2" t="b">
-        <f>EXACT(A71,D71)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H71" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2417,11 +2417,11 @@
         <v>969589400</v>
       </c>
       <c r="G72" s="2" t="b">
-        <f>EXACT(A72,D72)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H72" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2445,11 +2445,11 @@
         <v>1220299400</v>
       </c>
       <c r="G73" s="2" t="b">
-        <f>EXACT(A73,D73)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H73" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2473,11 +2473,11 @@
         <v>3204470200</v>
       </c>
       <c r="G74" s="2" t="b">
-        <f>EXACT(A74,D74)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H74" s="2" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2501,11 +2501,11 @@
         <v>6464325575500</v>
       </c>
       <c r="G75" s="2" t="b">
-        <f>EXACT(A75,D75)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H75" s="2" t="b">
-        <f t="shared" ref="H75:H76" si="1">IF((C75*1000)=F75,TRUE,FALSE)</f>
+        <f t="shared" ref="H75:H102" si="4">IF((C75*1000)=F75,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -2529,11 +2529,11 @@
         <v>2054670766200</v>
       </c>
       <c r="G76" s="2" t="b">
-        <f>EXACT(A76,D76)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H76" s="2" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2544,14 +2544,24 @@
       <c r="B77" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C77" s="4">
+        <v>211176.5</v>
+      </c>
       <c r="D77" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F77" s="3">
+        <v>211176500</v>
+      </c>
       <c r="G77" s="2" t="b">
-        <f>EXACT(A77,D77)</f>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="b">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2562,14 +2572,24 @@
       <c r="B78" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C78" s="4">
+        <v>491677.7</v>
+      </c>
       <c r="D78" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F78" s="3">
+        <v>491677700</v>
+      </c>
       <c r="G78" s="2" t="b">
-        <f>EXACT(A78,D78)</f>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="b">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2580,14 +2600,24 @@
       <c r="B79" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C79" s="4">
+        <v>1990906.1</v>
+      </c>
       <c r="D79" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F79" s="3">
+        <v>1990906100</v>
+      </c>
       <c r="G79" s="2" t="b">
-        <f>EXACT(A79,D79)</f>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="b">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2598,36 +2628,56 @@
       <c r="B80" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C80" s="4">
+        <v>4151597.4</v>
+      </c>
       <c r="D80" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F80" s="3">
+        <v>4151597400</v>
+      </c>
       <c r="G80" s="2" t="b">
-        <f>EXACT(A80,D80)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C81" s="4">
+        <v>57968.5</v>
+      </c>
       <c r="D81" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F81" s="3">
+        <v>57968500</v>
+      </c>
       <c r="G81" s="2" t="b">
-        <f>EXACT(A81,D81)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>45</v>
       </c>
@@ -2641,11 +2691,15 @@
         <v>2</v>
       </c>
       <c r="G82" s="2" t="b">
-        <f>EXACT(A82,D82)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>45</v>
       </c>
@@ -2659,11 +2713,15 @@
         <v>2</v>
       </c>
       <c r="G83" s="2" t="b">
-        <f>EXACT(A83,D83)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>45</v>
       </c>
@@ -2677,11 +2735,15 @@
         <v>2</v>
       </c>
       <c r="G84" s="2" t="b">
-        <f>EXACT(A84,D84)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>45</v>
       </c>
@@ -2695,11 +2757,15 @@
         <v>2</v>
       </c>
       <c r="G85" s="2" t="b">
-        <f>EXACT(A85,D85)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>45</v>
       </c>
@@ -2713,11 +2779,15 @@
         <v>2</v>
       </c>
       <c r="G86" s="2" t="b">
-        <f>EXACT(A86,D86)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>45</v>
       </c>
@@ -2731,11 +2801,15 @@
         <v>2</v>
       </c>
       <c r="G87" s="2" t="b">
-        <f>EXACT(A87,D87)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H87" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>45</v>
       </c>
@@ -2749,11 +2823,15 @@
         <v>2</v>
       </c>
       <c r="G88" s="2" t="b">
-        <f>EXACT(A88,D88)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>45</v>
       </c>
@@ -2767,29 +2845,43 @@
         <v>2</v>
       </c>
       <c r="G89" s="2" t="b">
-        <f>EXACT(A89,D89)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C90" s="4">
+        <v>459761545.39999998</v>
+      </c>
       <c r="D90" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F90" s="3">
+        <v>459761545400</v>
+      </c>
       <c r="G90" s="2" t="b">
-        <f>EXACT(A90,D90)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>45</v>
       </c>
@@ -2803,11 +2895,15 @@
         <v>2</v>
       </c>
       <c r="G91" s="2" t="b">
-        <f>EXACT(A91,D91)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H91" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>45</v>
       </c>
@@ -2821,11 +2917,15 @@
         <v>2</v>
       </c>
       <c r="G92" s="2" t="b">
-        <f>EXACT(A92,D92)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H92" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>45</v>
       </c>
@@ -2839,173 +2939,267 @@
         <v>2</v>
       </c>
       <c r="G93" s="2" t="b">
-        <f>EXACT(A93,D93)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H93" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C94" s="4">
+        <v>5971199.9000000004</v>
+      </c>
       <c r="D94" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F94" s="3">
+        <v>5971199900</v>
+      </c>
       <c r="G94" s="2" t="b">
-        <f>EXACT(A94,D94)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C95" s="4">
+        <v>95451.6</v>
+      </c>
       <c r="D95" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F95" s="3">
+        <v>95451600</v>
+      </c>
       <c r="G95" s="2" t="b">
-        <f>EXACT(A95,D95)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C96" s="4">
+        <v>39241843.5</v>
+      </c>
       <c r="D96" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F96" s="3">
+        <v>39241843500</v>
+      </c>
       <c r="G96" s="2" t="b">
-        <f>EXACT(A96,D96)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C97" s="4">
+        <v>167666.5</v>
+      </c>
       <c r="D97" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F97" s="3">
+        <v>167666500</v>
+      </c>
       <c r="G97" s="2" t="b">
-        <f>EXACT(A97,D97)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G97:G119" si="5">EXACT(A97,D97)</f>
+        <v>1</v>
+      </c>
+      <c r="H97" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C98" s="4">
+        <v>1354.3</v>
+      </c>
       <c r="D98" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F98" s="3">
+        <v>1354300</v>
+      </c>
       <c r="G98" s="2" t="b">
-        <f>EXACT(A98,D98)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H98" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C99" s="4">
+        <v>2536363</v>
+      </c>
       <c r="D99" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F99" s="3">
+        <v>2536363000</v>
+      </c>
       <c r="G99" s="2" t="b">
-        <f>EXACT(A99,D99)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C100" s="4">
+        <v>36439874.100000001</v>
+      </c>
       <c r="D100" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F100" s="3">
+        <v>36439874100</v>
+      </c>
       <c r="G100" s="2" t="b">
-        <f>EXACT(A100,D100)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C101" s="5">
+        <v>6884298673.3999996</v>
+      </c>
       <c r="D101" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F101" s="3">
+        <v>6884298673400</v>
+      </c>
       <c r="G101" s="2" t="b">
-        <f>EXACT(A101,D101)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C102" s="4">
+        <v>17930632660.299999</v>
+      </c>
       <c r="D102" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F102" s="3">
+        <v>17930632660300</v>
+      </c>
       <c r="G102" s="2" t="b">
-        <f>EXACT(A102,D102)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>54</v>
       </c>
@@ -3019,11 +3213,11 @@
         <v>1</v>
       </c>
       <c r="G103" s="2" t="b">
-        <f>EXACT(A103,D103)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>55</v>
       </c>
@@ -3037,11 +3231,11 @@
         <v>1</v>
       </c>
       <c r="G104" s="2" t="b">
-        <f>EXACT(A104,D104)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>56</v>
       </c>
@@ -3055,11 +3249,11 @@
         <v>1</v>
       </c>
       <c r="G105" s="2" t="b">
-        <f>EXACT(A105,D105)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>57</v>
       </c>
@@ -3073,11 +3267,11 @@
         <v>1</v>
       </c>
       <c r="G106" s="2" t="b">
-        <f>EXACT(A106,D106)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>58</v>
       </c>
@@ -3091,11 +3285,11 @@
         <v>1</v>
       </c>
       <c r="G107" s="2" t="b">
-        <f>EXACT(A107,D107)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D108" s="1" t="s">
         <v>87</v>
       </c>
@@ -3103,11 +3297,11 @@
         <v>1</v>
       </c>
       <c r="G108" s="2" t="b">
-        <f>EXACT(A108,D108)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>59</v>
       </c>
@@ -3121,11 +3315,11 @@
         <v>1</v>
       </c>
       <c r="G109" s="2" t="b">
-        <f>EXACT(A109,D109)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>60</v>
       </c>
@@ -3139,11 +3333,11 @@
         <v>1</v>
       </c>
       <c r="G110" s="2" t="b">
-        <f>EXACT(A110,D110)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>61</v>
       </c>
@@ -3157,11 +3351,11 @@
         <v>1</v>
       </c>
       <c r="G111" s="2" t="b">
-        <f>EXACT(A111,D111)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>62</v>
       </c>
@@ -3175,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="2" t="b">
-        <f>EXACT(A112,D112)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3193,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="2" t="b">
-        <f>EXACT(A113,D113)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3211,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="2" t="b">
-        <f>EXACT(A114,D114)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3229,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="2" t="b">
-        <f>EXACT(A115,D115)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3241,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="2" t="b">
-        <f>EXACT(A116,D116)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3259,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="2" t="b">
-        <f>EXACT(A117,D117)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3277,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="2" t="b">
-        <f>EXACT(A118,D118)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3295,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="2" t="b">
-        <f>EXACT(A119,D119)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3321,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="2" t="b">
-        <f>EXACT(A121,D121)</f>
+        <f t="shared" ref="G121:G131" si="6">EXACT(A121,D121)</f>
         <v>1</v>
       </c>
     </row>
@@ -3339,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="2" t="b">
-        <f>EXACT(A122,D122)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3357,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="2" t="b">
-        <f>EXACT(A123,D123)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3369,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="2" t="b">
-        <f>EXACT(A124,D124)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3381,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="2" t="b">
-        <f>EXACT(A125,D125)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3393,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="2" t="b">
-        <f>EXACT(A126,D126)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3411,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="2" t="b">
-        <f>EXACT(A127,D127)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3423,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="2" t="b">
-        <f>EXACT(A128,D128)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3441,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="2" t="b">
-        <f>EXACT(A129,D129)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3459,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="2" t="b">
-        <f>EXACT(A130,D130)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3471,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="2" t="b">
-        <f>EXACT(A131,D131)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3497,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="G133" s="2" t="b">
-        <f>EXACT(A133,D133)</f>
+        <f t="shared" ref="G133:G140" si="7">EXACT(A133,D133)</f>
         <v>1</v>
       </c>
     </row>
@@ -3515,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="2" t="b">
-        <f>EXACT(A134,D134)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -3533,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="2" t="b">
-        <f>EXACT(A135,D135)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -3551,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="G136" s="2" t="b">
-        <f>EXACT(A136,D136)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -3569,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="G137" s="2" t="b">
-        <f>EXACT(A137,D137)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3587,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="2" t="b">
-        <f>EXACT(A138,D138)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3605,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="2" t="b">
-        <f>EXACT(A139,D139)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3623,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="2" t="b">
-        <f>EXACT(A140,D140)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
